--- a/config/anchor.xlsx
+++ b/config/anchor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacabun\Desktop\UWBsystem-station\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88814FB-8167-4509-BA5A-DE26DDF128FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2AD5DF-6284-440C-B2DE-4F02DED3B36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="1695" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group1" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEF885E-4C41-4139-8B9E-39F397F36AD0}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -440,25 +440,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -469,68 +463,50 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>6.46</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>4.68</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -544,13 +520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B70DD2A-90B9-4D26-82F1-6FF9B3EF93E2}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -579,7 +555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -608,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -631,7 +607,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
